--- a/data/trans_camb/P32-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 10,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 7,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,29; 10,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 3,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 8,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 12,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 6,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 6,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 8,05</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,45%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>149,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,91%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>4,31; 297,31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-34,69; 216,48</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-90,86; 320,59</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-80,88; 320,13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-21,31; 760,41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,63; 211,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,47; 205,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,68; 242,5</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 8,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 7,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 8,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,04; 6,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 5,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 8,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,17; 6,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 5,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 6,05</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>167,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,87%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>237,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>208,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>227,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>175,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,94%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>37,02; 394,02</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22,21; 338,36</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-16,8; 361,92</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-75,0; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,91; 389,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,97; 330,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 351,19</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 6,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 4,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,39; 9,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 5,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 2,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 3,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 5,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 2,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 6,37</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>297,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>163,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>424,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>237,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>278,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>337,53%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>48,82; 1073,54</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-11,82; 789,37</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>87,23; 1834,18</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-74,82; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,28; 818,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,87; 465,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,76; 1140,84</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,13; 9,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 8,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 5,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,37; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,58; 4,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,9; 2,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 5,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,85; 6,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 4,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>527,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>453,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>280,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,11%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>276,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>310,51%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>180,26%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>72,92; 2353,6</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>48,66; 2052,3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-6,47; 1676,29</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,08; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,64; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,91; 1048,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,93; 1209,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,94; 706,21</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 2,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,39; 4,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 8,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,55; 1,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 6,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 5,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,84; 1,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; 3,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 6,28</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,25%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,3%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>133,85%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,04%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,63%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>-78,8; 108,87</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-58,91; 157,53</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-16,71; 282,86</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,05; 64,06</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,54; 146,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,94; 251,05</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>-0,38; 7,55</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 2,17</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 5,01</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 5,66</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 1,92</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 3,53</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>195,45%</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>-4,98%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>153,35%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>169,84%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,15%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>-47,61; 1528,39</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>-41,97; 1051,5</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-48,96; 1149,01</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,77; 821,88</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,49</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 5,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 3,79</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 5,18</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 2,13</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 3,2</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 2,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,86; 3,93</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,3; 3,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 3,64</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>146,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,04%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,88%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,41%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,7%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,0; 248,52</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,89; 173,2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,89; 240,06</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,65; 231,32</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,4; 353,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,75; 295,98</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,59; 203,79</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,83; 165,47</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,81; 185,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>2,13</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 10,83</t>
+          <t>-4,15; 11,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 12,98</t>
+          <t>-1,95; 12,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 8,05</t>
+          <t>-1,98; 8,61</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,99%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>105,5%</t>
+          <t>105,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>50,04%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,86; 320,59</t>
+          <t>-71,54; 341,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,68; 242,5</t>
+          <t>-44,86; 263,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>3,19</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 8,25</t>
+          <t>-0,11; 9,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 8,22</t>
+          <t>-0,77; 7,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 6,05</t>
+          <t>0,58; 6,71</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>106,87%</t>
+          <t>130,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>227,04%</t>
+          <t>197,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>115,94%</t>
+          <t>130,02%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 361,92</t>
+          <t>-7,24; 411,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 351,19</t>
+          <t>10,22; 378,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>3,73</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 9,04</t>
+          <t>2,26; 8,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,81</t>
+          <t>-1,15; 3,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,37</t>
+          <t>1,82; 6,26</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>424,5%</t>
+          <t>417,42%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>140,56%</t>
+          <t>131,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>337,53%</t>
+          <t>332,89%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>87,23; 1834,18</t>
+          <t>88,14; 1811,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>90,76; 1140,84</t>
+          <t>89,3; 1135,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>2,24</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,99</t>
+          <t>0,87; 5,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,67</t>
+          <t>-2,95; 2,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 4,14</t>
+          <t>0,44; 4,08</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>280,79%</t>
+          <t>272,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>180,26%</t>
+          <t>175,55%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 1676,29</t>
+          <t>-6,81; 1676,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,64; —</t>
+          <t>-84,98; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,94; 706,21</t>
+          <t>4,91; 689,11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>3,14</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 8,37</t>
+          <t>-1,17; 8,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,11</t>
+          <t>-2,04; 5,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 6,28</t>
+          <t>-0,43; 6,21</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>73,3%</t>
+          <t>71,82%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>157,04%</t>
+          <t>156,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>74,63%</t>
+          <t>73,83%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 282,86</t>
+          <t>-16,78; 277,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 251,05</t>
+          <t>-17,07; 247,64</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1732,27 +1732,27 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,16</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 7,55</t>
+          <t>-0,61; 11,22</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,17</t>
+          <t>-5,78; 1,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,01</t>
+          <t>-0,56; 7,57</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,96</t>
+          <t>0,0; 8,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,37</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 5,66</t>
+          <t>-0,8; 7,56</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,92</t>
+          <t>-4,2; 1,74</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,53</t>
+          <t>-3,32; 4,29</t>
         </is>
       </c>
     </row>
@@ -1818,17 +1818,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>195,45%</t>
+          <t>235,09%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-40,02%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>153,35%</t>
+          <t>217,95%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1848,17 +1848,17 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>169,84%</t>
+          <t>198,91%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>-18,9%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>105,15%</t>
+          <t>73,69%</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-47,61; 1528,39</t>
+          <t>-68,29; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 1051,5</t>
+          <t>-35,76; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-48,96; 1149,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -1911,14 +1911,14 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 821,88</t>
+          <t>-77,78; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>0,31</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,47</t>
+          <t>-2,76; 10,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,79</t>
+          <t>-2,71; 6,52</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,18</t>
+          <t>-4,81; 2,29</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,91</t>
+          <t>0,0; 8,68</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,93</t>
+          <t>-2,22; 8,18</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,24</t>
+          <t>-2,3; 4,44</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,64</t>
+          <t>-3,84; 2,21</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>146,4%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>84,7%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>123,04%</t>
+          <t>-9,08%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>46,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>119,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>84,73%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>122,41%</t>
+          <t>85,86%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>63,69%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>106,7%</t>
+          <t>27,56%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2,85</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 5,47</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 3,79</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 5,33</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 2,13</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 3,2</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 2,44</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 3,93</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 3,24</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>1,08; 3,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>146,4%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>92,07%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>126,06%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>46,01%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>119,88%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>61,17%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>122,41%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>94,15%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>101,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>84,0; 248,52</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>39,89; 173,2</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>59,89; 240,06</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>60,28; 244,41</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-29,65; 231,32</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>16,4; 353,9</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-7,75; 295,98</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-29,04; 252,41</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>65,59; 203,79</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>45,83; 165,47</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>49,81; 185,89</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>39,07; 175,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P32-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P32-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 10,38</t>
+          <t>1,1; 10,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 7,08</t>
+          <t>-2,08; 7,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 11,69</t>
+          <t>-4,23; 12,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 3,2</t>
+          <t>-3,69; 3,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 8,91</t>
+          <t>-0,02; 9,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 12,55</t>
+          <t>-2,28; 12,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 6,33</t>
+          <t>0,14; 6,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,53</t>
+          <t>0,07; 6,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 8,61</t>
+          <t>-2,14; 9,39</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 297,31</t>
+          <t>9,62; 297,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 216,48</t>
+          <t>-33,71; 210,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,54; 341,07</t>
+          <t>-73,79; 349,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-80,88; 320,13</t>
+          <t>-85,05; 277,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 760,41</t>
+          <t>-16,67; 675,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,14; 1008,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 211,57</t>
+          <t>0,23; 219,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 205,69</t>
+          <t>-3,51; 217,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,86; 263,12</t>
+          <t>-42,82; 306,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 8,11</t>
+          <t>2,2; 8,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 7,34</t>
+          <t>0,98; 7,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 9,46</t>
+          <t>0,28; 9,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 6,5</t>
+          <t>-0,05; 7,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,34</t>
+          <t>-0,22; 5,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 7,48</t>
+          <t>-0,51; 7,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,84</t>
+          <t>2,08; 6,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 5,51</t>
+          <t>1,3; 5,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,71</t>
+          <t>0,38; 7,0</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,02; 394,02</t>
+          <t>49,91; 443,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,21; 338,36</t>
+          <t>23,08; 346,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 411,68</t>
+          <t>-3,23; 409,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-68,13; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-41,07; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-75,0; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,91; 389,13</t>
+          <t>57,98; 429,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,97; 330,85</t>
+          <t>38,87; 378,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,22; 378,53</t>
+          <t>7,96; 387,14</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,08</t>
+          <t>1,41; 6,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,03</t>
+          <t>0,24; 4,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 8,77</t>
+          <t>2,28; 9,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 5,61</t>
+          <t>-0,16; 5,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,11</t>
+          <t>-1,89; 1,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,63</t>
+          <t>-0,99; 3,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 5,07</t>
+          <t>1,48; 4,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,95</t>
+          <t>-0,04; 2,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,26</t>
+          <t>1,88; 6,4</t>
         </is>
       </c>
     </row>
@@ -1223,22 +1223,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>48,82; 1073,54</t>
+          <t>41,66; 1222,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 789,37</t>
+          <t>-7,82; 799,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>88,14; 1811,79</t>
+          <t>75,87; 1611,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-74,82; —</t>
+          <t>-57,62; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>63,28; 818,57</t>
+          <t>56,03; 784,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 465,13</t>
+          <t>-16,34; 510,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>89,3; 1135,29</t>
+          <t>75,72; 1078,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 9,5</t>
+          <t>3,38; 9,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,53; 8,68</t>
+          <t>2,7; 8,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,91</t>
+          <t>0,68; 6,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 0,0</t>
+          <t>-4,79; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 4,65</t>
+          <t>-1,15; 4,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 2,59</t>
+          <t>-2,49; 2,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,9</t>
+          <t>1,37; 6,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,21</t>
+          <t>1,78; 6,13</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,08</t>
+          <t>0,31; 4,01</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>72,92; 2353,6</t>
+          <t>86,75; 2349,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>48,66; 2052,3</t>
+          <t>56,87; 2134,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 1676,21</t>
+          <t>-9,35; 1491,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-77,08; —</t>
+          <t>-69,88; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-84,98; —</t>
+          <t>-85,56; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>41,91; 1048,43</t>
+          <t>37,05; 1064,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>60,93; 1209,27</t>
+          <t>57,41; 1119,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,91; 689,11</t>
+          <t>-0,9; 710,44</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,57</t>
+          <t>-6,39; 2,39</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 4,63</t>
+          <t>-4,49; 4,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 8,29</t>
+          <t>-1,21; 8,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 1,8</t>
+          <t>-5,47; 1,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 6,56</t>
+          <t>-2,58; 7,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 5,09</t>
+          <t>-2,4; 5,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 1,27</t>
+          <t>-5,16; 1,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,83</t>
+          <t>-3,01; 4,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 6,21</t>
+          <t>-0,14; 6,42</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-78,8; 108,87</t>
+          <t>-79,74; 93,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-58,91; 157,53</t>
+          <t>-55,71; 158,68</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 277,46</t>
+          <t>-20,79; 238,18</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-78,05; 64,06</t>
+          <t>-79,0; 62,39</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-50,54; 146,71</t>
+          <t>-49,0; 153,39</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 247,64</t>
+          <t>-9,38; 267,97</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 11,22</t>
+          <t>-0,01; 10,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 1,65</t>
+          <t>-5,36; 1,72</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,57</t>
+          <t>-0,31; 7,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,34</t>
+          <t>0,0; 7,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 7,56</t>
+          <t>-0,59; 7,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,74</t>
+          <t>-3,83; 1,69</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 4,29</t>
+          <t>-3,72; 4,06</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-68,29; —</t>
+          <t>-61,22; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,76; —</t>
+          <t>-49,85; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1901,17 +1901,17 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>-64,83; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-77,78; —</t>
+          <t>-74,68; 801,61</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 10,62</t>
+          <t>-2,8; 9,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 6,52</t>
+          <t>-2,75; 6,75</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,29</t>
+          <t>-5,24; 2,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,22 +2006,22 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,68</t>
+          <t>0,0; 8,67</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 8,18</t>
+          <t>-2,22; 9,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 4,44</t>
+          <t>-2,22; 4,8</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 2,21</t>
+          <t>-4,12; 2,1</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,47</t>
+          <t>2,63; 5,46</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,79</t>
+          <t>1,3; 3,94</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>2,01; 5,33</t>
+          <t>1,96; 5,06</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,13</t>
+          <t>-0,59; 1,99</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,2</t>
+          <t>0,45; 3,09</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 2,44</t>
+          <t>-0,82; 2,34</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,93</t>
+          <t>1,8; 3,99</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,24</t>
+          <t>1,26; 3,31</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,57</t>
+          <t>1,01; 3,5</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>84,0; 248,52</t>
+          <t>77,48; 238,34</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>39,89; 173,2</t>
+          <t>38,6; 171,03</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>60,28; 244,41</t>
+          <t>57,58; 217,73</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 231,32</t>
+          <t>-32,19; 213,3</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>16,4; 353,9</t>
+          <t>17,55; 339,74</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 252,41</t>
+          <t>-34,06; 222,15</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>65,59; 203,79</t>
+          <t>65,46; 205,15</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>45,83; 165,47</t>
+          <t>41,18; 165,44</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>39,07; 175,86</t>
+          <t>38,68; 173,03</t>
         </is>
       </c>
     </row>
